--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFEBD5E-A7EE-7B4B-935A-B48E4575B428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC89212-12CF-0F49-B135-120ED54BDDD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
@@ -83,10 +83,10 @@
     <t>トレイダーズ! スーパーシナリオサポート 11</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 7</t>
-  </si>
-  <si>
     <t>Traders! Super Session Support 11</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 6</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC89212-12CF-0F49-B135-120ED54BDDD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88E9E3-8ECA-924B-9C7A-FAE6F1BC945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -77,16 +77,76 @@
     <t>Traders!</t>
   </si>
   <si>
-    <t>トレイダーズ! スーパーシナリオサポート 6</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 11</t>
   </si>
   <si>
     <t>Traders! Super Session Support 11</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 6</t>
+    <t>sss9.jpg</t>
+  </si>
+  <si>
+    <t>トレイダーズ！スーパーシナリオサポート 9：神封じの混沌</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 9: Chaos God of Sealing</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 1：危険な貨物</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 1: Dangerous Cargo</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 2：伯爵の巡礼</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 2: Pilgrimage of the Count</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 3：王女様と私</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 3: The Princess and I</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 7</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 10</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 4：空賊の財宝</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 4: Air Pirate Treasure</t>
+  </si>
+  <si>
+    <t>sss3.jpg</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 5：飛空船包囲指令</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 5: Airship Siege Order</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 6：聖なる槍の探索</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 6: Search for the Holy Spear</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 7：壺中天</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 8：小さな勇気</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 8: Little Courage</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 10：魔弾の射手</t>
   </si>
 </sst>
 </file>
@@ -453,16 +513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581F452-C704-9544-B407-A40B4D89404E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -507,16 +567,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -524,18 +581,153 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>

--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88E9E3-8ECA-924B-9C7A-FAE6F1BC945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BF53E8-1646-5F49-88A3-28EA4C8472EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>トレイダーズ! スーパーシナリオサポート 10：魔弾の射手</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 12：漆黒の仮面</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 12: Jet Black Mask</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 13：辺境の覇者</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 13: Frontier Champion</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 14：聖バレストール祭</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 14: St. Valestor Festival</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 15：遙かなる封土</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 15: A Far Reaching Lord</t>
   </si>
 </sst>
 </file>
@@ -513,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581F452-C704-9544-B407-A40B4D89404E}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,6 +755,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BF53E8-1646-5F49-88A3-28EA4C8472EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10B2F0B-ACDF-004C-B813-8FCC1677D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>Traders!</t>
   </si>
   <si>
-    <t>トレイダーズ! スーパーシナリオサポート 11</t>
-  </si>
-  <si>
-    <t>Traders! Super Session Support 11</t>
-  </si>
-  <si>
     <t>sss9.jpg</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>Traders! Super Session Support 15: A Far Reaching Lord</t>
+  </si>
+  <si>
+    <t>トレイダーズ! スーパーシナリオサポート 11：蒼空の騎士</t>
+  </si>
+  <si>
+    <t>Traders! Super Session Support 11: Knight of the Blue Sky</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,10 +591,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -619,16 +619,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>

--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10B2F0B-ACDF-004C-B813-8FCC1677D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56283A0-372E-F94A-ACAA-8DCBF6AE6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
@@ -83,94 +83,94 @@
     <t>トレイダーズ！スーパーシナリオサポート 9：神封じの混沌</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 9: Chaos God of Sealing</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 1：危険な貨物</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 1: Dangerous Cargo</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 2：伯爵の巡礼</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 2: Pilgrimage of the Count</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 3：王女様と私</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 3: The Princess and I</t>
-  </si>
-  <si>
-    <t>Traders! Super Session Support 7</t>
-  </si>
-  <si>
-    <t>Traders! Super Session Support 10</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 4：空賊の財宝</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 4: Air Pirate Treasure</t>
-  </si>
-  <si>
     <t>sss3.jpg</t>
   </si>
   <si>
     <t>トレイダーズ! スーパーシナリオサポート 5：飛空船包囲指令</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 5: Airship Siege Order</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 6：聖なる槍の探索</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 6: Search for the Holy Spear</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 7：壺中天</t>
   </si>
   <si>
     <t>トレイダーズ! スーパーシナリオサポート 8：小さな勇気</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 8: Little Courage</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 10：魔弾の射手</t>
   </si>
   <si>
     <t>トレイダーズ! スーパーシナリオサポート 12：漆黒の仮面</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 12: Jet Black Mask</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 13：辺境の覇者</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 13: Frontier Champion</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 14：聖バレストール祭</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 14: St. Valestor Festival</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 15：遙かなる封土</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 15: A Far Reaching Lord</t>
-  </si>
-  <si>
     <t>トレイダーズ! スーパーシナリオサポート 11：蒼空の騎士</t>
   </si>
   <si>
-    <t>Traders! Super Session Support 11: Knight of the Blue Sky</t>
+    <t>Traders! Super Scenario Support 1: Dangerous Cargo</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 2: Pilgrimage of the Count</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 3: The Princess and I</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 4: Air Pirate Treasure</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 5: Airship Siege Order</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 6: Search for the Holy Spear</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 7</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 8: Little Courage</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 9: Chaos God of Sealing</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 10</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 11: Knight of the Blue Sky</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 12: Jet Black Mask</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 13: Frontier Champion</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 14: St. Valestor Festival</t>
+  </si>
+  <si>
+    <t>Traders! Super Scenario Support 15: A Far Reaching Lord</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,10 +591,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -619,16 +619,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>

--- a/traders/checklist.xlsx
+++ b/traders/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56283A0-372E-F94A-ACAA-8DCBF6AE6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC79C7B2-3645-F849-9046-199CBA30D4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{83570033-C547-D34E-9F9C-D9B045508882}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +590,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1998</v>
+      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -604,6 +607,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1998</v>
+      </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -618,6 +624,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1998</v>
+      </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -635,6 +644,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1998</v>
+      </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -649,6 +661,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1998</v>
+      </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -663,6 +678,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1998</v>
+      </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -680,6 +698,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1998</v>
+      </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -694,6 +715,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1999</v>
+      </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -708,6 +732,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1999</v>
+      </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -725,6 +752,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1999</v>
+      </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -739,6 +769,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1999</v>
+      </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -756,6 +789,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1999</v>
+      </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -770,6 +806,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1999</v>
+      </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -784,6 +823,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2000</v>
+      </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -797,7 +839,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2000</v>
+      </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
